--- a/Durchläufe/Größere Grid resolution/60/Nachbearbeitung_23_03_04_17_10.xlsx
+++ b/Durchläufe/Größere Grid resolution/60/Nachbearbeitung_23_03_04_17_10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim Schell\Documents\GitHub\Limits-to-Growth-Masterprojekt-TH-Koeln-2022\Durchläufe\Größere Grid resolution\60\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA04DBCE-8C25-41BD-9462-96A7380FDDED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCDC99A7-B6A5-4DC6-BC5E-78B0E8DF17C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1438,7 +1438,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="de-DE" baseline="0"/>
-              <a:t> Change</a:t>
+              <a:t> Change, hohe Resolution</a:t>
             </a:r>
             <a:endParaRPr lang="de-DE"/>
           </a:p>
@@ -1574,19 +1574,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>2.4845000000000006E-2</c:v>
+                  <c:v>-2.4845000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.78817729999999986</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5427999999999933E-2</c:v>
+                  <c:v>-2.5427999999999933E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.13204399999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.9210399999999949E-2</c:v>
+                  <c:v>-9.9210399999999949E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>3.5186666666666699E-2</c:v>
@@ -1595,13 +1595,13 @@
                   <c:v>0.99832999999999994</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.1150000000000049E-2</c:v>
+                  <c:v>-1.1150000000000049E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1638499999999996E-2</c:v>
+                  <c:v>-1.1638499999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.50118571428571435</c:v>
+                  <c:v>-0.50118571428571435</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.43674485099999993</c:v>
@@ -1613,13 +1613,13 @@
                   <c:v>3.1100504999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.11476</c:v>
+                  <c:v>-0.11476</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.4299799999999999E-2</c:v>
+                  <c:v>-7.4299799999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.97909999999999997</c:v>
+                  <c:v>-0.97909999999999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.65499999999999992</c:v>
@@ -1634,10 +1634,10 @@
                   <c:v>0.49038500000000007</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9.2645791439241579E-2</c:v>
+                  <c:v>-9.2645791439241579E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.4503000000000044E-2</c:v>
+                  <c:v>-1.4503000000000044E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7837,8 +7837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B18376-9D15-4F7B-9DDA-34955610ECF9}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C36"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8275,8 +8275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86BCBB9C-0525-46F8-B6AB-26471E85C070}">
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B35" sqref="B1:B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8573,8 +8573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED61EA00-2246-4314-8737-2A6D310466A4}">
   <dimension ref="B1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8627,8 +8627,8 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <f>ABS(D2-E2)/E2</f>
-        <v>2.4845000000000006E-2</v>
+        <f>(D2-E2)/E2</f>
+        <v>-2.4845000000000006E-2</v>
       </c>
       <c r="H2" t="s">
         <v>34</v>
@@ -8652,7 +8652,7 @@
         <v>20</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F23" si="0">ABS(D3-E3)/E3</f>
+        <f t="shared" ref="F3:F23" si="0">(D3-E3)/E3</f>
         <v>0.78817729999999986</v>
       </c>
       <c r="H3" t="s">
@@ -8678,7 +8678,7 @@
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>2.5427999999999933E-2</v>
+        <v>-2.5427999999999933E-2</v>
       </c>
       <c r="H4" t="s">
         <v>32</v>
@@ -8728,7 +8728,7 @@
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>9.9210399999999949E-2</v>
+        <v>-9.9210399999999949E-2</v>
       </c>
       <c r="H6" t="s">
         <v>39</v>
@@ -8803,7 +8803,7 @@
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>1.1150000000000049E-2</v>
+        <v>-1.1150000000000049E-2</v>
       </c>
       <c r="H9" t="s">
         <v>8</v>
@@ -8828,7 +8828,7 @@
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>1.1638499999999996E-2</v>
+        <v>-1.1638499999999996E-2</v>
       </c>
       <c r="H10" t="s">
         <v>35</v>
@@ -8853,7 +8853,7 @@
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>0.50118571428571435</v>
+        <v>-0.50118571428571435</v>
       </c>
       <c r="H11" t="s">
         <v>36</v>
@@ -8953,7 +8953,7 @@
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>0.11476</v>
+        <v>-0.11476</v>
       </c>
       <c r="I15" s="5"/>
     </row>
@@ -8973,7 +8973,7 @@
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>7.4299799999999999E-2</v>
+        <v>-7.4299799999999999E-2</v>
       </c>
       <c r="I16" s="2"/>
     </row>
@@ -8993,7 +8993,7 @@
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>0.97909999999999997</v>
+        <v>-0.97909999999999997</v>
       </c>
       <c r="I17" s="2"/>
     </row>
@@ -9091,7 +9091,7 @@
       </c>
       <c r="F22">
         <f t="shared" si="0"/>
-        <v>9.2645791439241579E-2</v>
+        <v>-9.2645791439241579E-2</v>
       </c>
       <c r="G22" s="2"/>
     </row>
@@ -9111,7 +9111,7 @@
       </c>
       <c r="F23">
         <f t="shared" si="0"/>
-        <v>1.4503000000000044E-2</v>
+        <v>-1.4503000000000044E-2</v>
       </c>
       <c r="G23" s="2"/>
     </row>

--- a/Durchläufe/Größere Grid resolution/60/Nachbearbeitung_23_03_04_17_10.xlsx
+++ b/Durchläufe/Größere Grid resolution/60/Nachbearbeitung_23_03_04_17_10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim Schell\Documents\GitHub\Limits-to-Growth-Masterprojekt-TH-Koeln-2022\Durchläufe\Größere Grid resolution\60\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCDC99A7-B6A5-4DC6-BC5E-78B0E8DF17C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB312A97-7891-4FEC-A772-7DA5D44CF959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8574,14 +8574,14 @@
   <dimension ref="B1:I56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B23"/>
+      <selection activeCell="D2" sqref="D2:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
@@ -8620,7 +8620,7 @@
         <f>COUNTIF(History!B2:B122,Nachbearbeitung!B2)</f>
         <v>4</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>0.97515499999999999</v>
       </c>
       <c r="E2" s="2">
@@ -8645,7 +8645,7 @@
         <f>COUNTIF(History!B3:B123,Nachbearbeitung!B3)</f>
         <v>10</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>35.763545999999998</v>
       </c>
       <c r="E3" s="2">
@@ -8670,7 +8670,7 @@
         <f>COUNTIF(History!B4:B124,Nachbearbeitung!B4)</f>
         <v>2</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>2.9237160000000002</v>
       </c>
       <c r="E4" s="2">
@@ -8695,7 +8695,7 @@
         <f>COUNTIF(History!B5:B125,Nachbearbeitung!B5)</f>
         <v>3</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>22.640879999999999</v>
       </c>
       <c r="E5" s="2">
@@ -8720,7 +8720,7 @@
         <f>COUNTIF(History!B6:B126,Nachbearbeitung!B6)</f>
         <v>3</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>18.015792000000001</v>
       </c>
       <c r="E6" s="2">
@@ -8745,7 +8745,7 @@
         <f>COUNTIF(History!B7:B127,Nachbearbeitung!B7)</f>
         <v>5</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>0.77639000000000002</v>
       </c>
       <c r="E7" s="2">
@@ -8770,7 +8770,7 @@
         <f>COUNTIF(History!B8:B128,Nachbearbeitung!B8)</f>
         <v>2</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>3.9966599999999999</v>
       </c>
       <c r="E8" s="2">
@@ -8795,7 +8795,7 @@
         <f>COUNTIF(History!B9:B129,Nachbearbeitung!B9)</f>
         <v>1</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>9.8885000000000001E-2</v>
       </c>
       <c r="E9" s="2">
@@ -8820,7 +8820,7 @@
         <f>COUNTIF(History!B10:B130,Nachbearbeitung!B10)</f>
         <v>3</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>1.976723</v>
       </c>
       <c r="E10" s="2">
@@ -8845,7 +8845,7 @@
         <f>COUNTIF(History!B11:B131,Nachbearbeitung!B11)</f>
         <v>4</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>3.4916999999999997E-2</v>
       </c>
       <c r="E11" s="2">
@@ -8870,7 +8870,7 @@
         <f>COUNTIF(History!B12:B132,Nachbearbeitung!B12)</f>
         <v>12</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>1436.7448509999999</v>
       </c>
       <c r="E12" s="2">
@@ -8895,7 +8895,7 @@
         <f>COUNTIF(History!B13:B133,Nachbearbeitung!B13)</f>
         <v>1</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>15.000028</v>
       </c>
       <c r="E13" s="2">
@@ -8920,7 +8920,7 @@
         <f>COUNTIF(History!B14:B134,Nachbearbeitung!B14)</f>
         <v>4</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>8.2201009999999997</v>
       </c>
       <c r="E14" s="2">
@@ -8945,7 +8945,7 @@
         <f>COUNTIF(History!B15:B135,Nachbearbeitung!B15)</f>
         <v>3</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <v>8.8524000000000005E-2</v>
       </c>
       <c r="E15" s="2">
@@ -8965,7 +8965,7 @@
         <f>COUNTIF(History!B16:B136,Nachbearbeitung!B16)</f>
         <v>3</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2">
         <v>9.257002</v>
       </c>
       <c r="E16" s="2">
@@ -8985,7 +8985,7 @@
         <f>COUNTIF(History!B17:B137,Nachbearbeitung!B17)</f>
         <v>23</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="2">
         <v>4.1800000000000002E-4</v>
       </c>
       <c r="E17" s="2">
@@ -9005,7 +9005,7 @@
         <f>COUNTIF(History!B18:B138,Nachbearbeitung!B18)</f>
         <v>0</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="2">
         <v>1.655E-3</v>
       </c>
       <c r="E18" s="3">
@@ -9025,7 +9025,7 @@
         <f>COUNTIF(History!B19:B139,Nachbearbeitung!B19)</f>
         <v>33</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <v>2.1414430000000002</v>
       </c>
       <c r="E19" s="2">
@@ -9045,7 +9045,7 @@
         <f>COUNTIF(History!B20:B140,Nachbearbeitung!B20)</f>
         <v>4</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="2">
         <v>82.099376000000007</v>
       </c>
       <c r="E20" s="2">
@@ -9064,7 +9064,7 @@
         <f>COUNTIF(History!B21:B141,Nachbearbeitung!B21)</f>
         <v>2</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="2">
         <v>1.4903850000000001</v>
       </c>
       <c r="E21" s="2">
@@ -9083,7 +9083,7 @@
         <f>COUNTIF(History!B22:B142,Nachbearbeitung!B22)</f>
         <v>1</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="5">
         <v>907354208560.75842</v>
       </c>
       <c r="E22" s="5">
@@ -9103,7 +9103,7 @@
         <f>COUNTIF(History!B23:B143,Nachbearbeitung!B23)</f>
         <v>3</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="2">
         <v>0.98549699999999996</v>
       </c>
       <c r="E23" s="2">

--- a/Durchläufe/Größere Grid resolution/60/Nachbearbeitung_23_03_04_17_10.xlsx
+++ b/Durchläufe/Größere Grid resolution/60/Nachbearbeitung_23_03_04_17_10.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim Schell\Documents\GitHub\Limits-to-Growth-Masterprojekt-TH-Koeln-2022\Durchläufe\Größere Grid resolution\60\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB312A97-7891-4FEC-A772-7DA5D44CF959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A0E602F-3DA1-4A0E-8CEE-588B638E709F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,6 +18,7 @@
     <sheet name="new List" sheetId="2" r:id="rId3"/>
     <sheet name="old List" sheetId="3" r:id="rId4"/>
     <sheet name="Nachbearbeitung" sheetId="4" r:id="rId5"/>
+    <sheet name="Tabelle1" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="95">
   <si>
     <t>changed parameter</t>
   </si>
@@ -254,14 +255,86 @@
   <si>
     <t>langer Durchlauf mit Gewichtung von Ruben mit hoher Grid resolution</t>
   </si>
+  <si>
+    <t>Ausgeschriebener Name</t>
+  </si>
+  <si>
+    <t>land yield factor 1</t>
+  </si>
+  <si>
+    <t>health services impact delay</t>
+  </si>
+  <si>
+    <t>income expectation averaging time</t>
+  </si>
+  <si>
+    <t>lifetime perception delay</t>
+  </si>
+  <si>
+    <t>social adjustment delay</t>
+  </si>
+  <si>
+    <t>labor force participation fraction</t>
+  </si>
+  <si>
+    <t>labor utilization fraction delay time</t>
+  </si>
+  <si>
+    <t>processing loss</t>
+  </si>
+  <si>
+    <t>average lifetime of agricultural inputs 1</t>
+  </si>
+  <si>
+    <t>social discount</t>
+  </si>
+  <si>
+    <t>average life of land normal</t>
+  </si>
+  <si>
+    <t>urban-industrial land development time</t>
+  </si>
+  <si>
+    <t>food shortage perception delay</t>
+  </si>
+  <si>
+    <t>Industrial material emission factor</t>
+  </si>
+  <si>
+    <t>Industrial material toxic index</t>
+  </si>
+  <si>
+    <t>Fraction res pers mtl</t>
+  </si>
+  <si>
+    <t>Fraction agricultural input pers mtl</t>
+  </si>
+  <si>
+    <t>Agricultural material toxicity index</t>
+  </si>
+  <si>
+    <t>Persistent pollution transmission delay</t>
+  </si>
+  <si>
+    <t>Persistent Pollution Gen Fact 1</t>
+  </si>
+  <si>
+    <t>nonrenewable resources initial</t>
+  </si>
+  <si>
+    <t>nonrenewable resource usage factor</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.000000000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="168" formatCode="0.00000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -312,7 +385,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -321,6 +394,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1571,7 +1647,7 @@
             <c:numRef>
               <c:f>Nachbearbeitung!$F$2:$F$23</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>-2.4845000000000006E-2</c:v>
@@ -1733,7 +1809,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3466,13 +3542,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
@@ -3546,7 +3622,7 @@
       <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>52387</xdr:rowOff>
@@ -4043,8 +4119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G251"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E151" sqref="E151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7837,8 +7913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B18376-9D15-4F7B-9DDA-34955610ECF9}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7856,10 +7932,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>1.976723</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -7867,10 +7943,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C3">
-        <v>3.8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -7878,10 +7954,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C4">
-        <v>28</v>
+        <v>1436.7448509999999</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -7889,10 +7965,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5">
-        <v>0.43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -7900,10 +7976,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="C6">
-        <v>0.7</v>
+        <v>2.1414430000000002</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -7911,10 +7987,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C7">
-        <v>0.97515499999999999</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -7922,10 +7998,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="C8">
-        <v>4.0000000000000002E-9</v>
+        <v>1.655E-3</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -7933,10 +8009,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C9">
-        <v>35.763545999999998</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -7944,10 +8020,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C10">
-        <v>2.9237160000000002</v>
+        <v>4.1800000000000002E-4</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -7955,10 +8031,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C11">
-        <v>22.640879999999999</v>
+        <v>8.2201009999999997</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -7966,10 +8042,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C12">
-        <v>12</v>
+        <v>4.0000000000000002E-9</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -7977,10 +8053,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C13">
-        <v>30</v>
+        <v>35.763545999999998</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -7988,10 +8064,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C14">
-        <v>18.015792000000001</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -7999,10 +8075,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C15">
-        <v>0.77639000000000002</v>
+        <v>2.9237160000000002</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -8010,10 +8086,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C16">
-        <v>3.9966599999999999</v>
+        <v>8.8524000000000005E-2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -8021,10 +8097,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>9.257002</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -8032,10 +8108,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C18">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -8043,10 +8119,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C19">
-        <v>20</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -8054,10 +8130,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C20">
-        <v>3200000000</v>
+        <v>0.77639000000000002</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -8065,10 +8141,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C21">
-        <v>9.8885000000000001E-2</v>
+        <v>22.640879999999999</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -8076,10 +8152,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="C22">
-        <v>1.976723</v>
+        <v>3.9966599999999999</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -8087,10 +8163,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C23">
-        <v>3.4916999999999997E-2</v>
+        <v>0.97515499999999999</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -8098,10 +8174,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C24">
-        <v>1436.7448509999999</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -8109,10 +8185,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C25">
-        <v>15.000028</v>
+        <v>907354208560.75842</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -8120,10 +8196,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C26">
-        <v>8.2201009999999997</v>
+        <v>0.98549699999999996</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -8131,10 +8207,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C27">
-        <v>230</v>
+        <v>3200000000</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -8142,10 +8218,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="C28">
-        <v>8.8524000000000005E-2</v>
+        <v>9.8885000000000001E-2</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -8153,10 +8229,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C29">
-        <v>9.257002</v>
+        <v>1.4903850000000001</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -8164,10 +8240,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C30">
-        <v>4.1800000000000002E-4</v>
+        <v>82.099376000000007</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -8175,10 +8251,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C31">
-        <v>1.655E-3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -8186,10 +8262,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C32">
-        <v>2.1414430000000002</v>
+        <v>18.015792000000001</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -8197,10 +8273,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C33">
-        <v>82.099376000000007</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -8208,10 +8284,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C34">
-        <v>1.4903850000000001</v>
+        <v>3.4916999999999997E-2</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -8219,10 +8295,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="C35">
-        <v>907354208560.75842</v>
+        <v>230</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -8230,10 +8306,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C36">
-        <v>0.98549699999999996</v>
+        <v>15.000028</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -8275,8 +8351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86BCBB9C-0525-46F8-B6AB-26471E85C070}">
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B1:B35"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8286,167 +8362,167 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B1" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B2" s="2">
-        <v>3.8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2">
-        <v>28</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" s="2">
-        <v>0.43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B6" s="2">
-        <v>1</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="4">
-        <v>4.0000000000000002E-9</v>
+        <v>14</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1E-3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B8" s="2">
-        <v>20</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2">
-        <v>3</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B10" s="2">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="2">
-        <v>12</v>
+        <v>45</v>
+      </c>
+      <c r="B11" s="4">
+        <v>4.0000000000000002E-9</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B13" s="2">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B14" s="2">
-        <v>0.75</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B15" s="2">
-        <v>2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B16" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B17" s="2">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B18" s="2">
-        <v>20</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B19" s="2">
-        <v>3200000000</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B20" s="2">
-        <v>0.1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B21" s="2">
         <v>2</v>
@@ -8454,47 +8530,47 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="B22" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B23" s="2">
-        <v>1000</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="2">
-        <v>10</v>
+        <v>18</v>
+      </c>
+      <c r="B24" s="5">
+        <v>1000000000000</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B25" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B26" s="2">
-        <v>230</v>
+        <v>3200000000</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B27" s="2">
         <v>0.1</v>
@@ -8502,94 +8578,98 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B28" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B29" s="2">
-        <v>0.02</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" s="3">
-        <v>1E-3</v>
+        <v>8</v>
+      </c>
+      <c r="B30" s="2">
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B31" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B32" s="2">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B33" s="2">
-        <v>1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>18</v>
-      </c>
-      <c r="B34" s="5">
-        <v>1000000000000</v>
+        <v>44</v>
+      </c>
+      <c r="B34" s="2">
+        <v>230</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B35" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B35">
+    <sortCondition ref="A1:A35"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED61EA00-2246-4314-8737-2A6D310466A4}">
-  <dimension ref="B1:I56"/>
+  <dimension ref="B1:J56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D23"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="7" max="7" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>46</v>
       </c>
@@ -8605,14 +8685,17 @@
       <c r="F1" t="s">
         <v>50</v>
       </c>
-      <c r="H1" t="s">
+      <c r="G1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" t="s">
         <v>51</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>43</v>
       </c>
@@ -8620,24 +8703,27 @@
         <f>COUNTIF(History!B2:B122,Nachbearbeitung!B2)</f>
         <v>4</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
         <v>0.97515499999999999</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <f>(D2-E2)/E2</f>
         <v>-2.4845000000000006E-2</v>
       </c>
-      <c r="H2" t="s">
+      <c r="G2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" t="s">
         <v>34</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>23</v>
       </c>
@@ -8651,18 +8737,21 @@
       <c r="E3" s="2">
         <v>20</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <f t="shared" ref="F3:F23" si="0">(D3-E3)/E3</f>
         <v>0.78817729999999986</v>
       </c>
-      <c r="H3" t="s">
+      <c r="G3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3" t="s">
         <v>30</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>3.8</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>31</v>
       </c>
@@ -8670,24 +8759,27 @@
         <f>COUNTIF(History!B4:B124,Nachbearbeitung!B4)</f>
         <v>2</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>2.9237160000000002</v>
       </c>
       <c r="E4" s="2">
         <v>3</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <f t="shared" si="0"/>
         <v>-2.5427999999999933E-2</v>
       </c>
-      <c r="H4" t="s">
+      <c r="G4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I4" t="s">
         <v>32</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>21</v>
       </c>
@@ -8701,18 +8793,21 @@
       <c r="E5" s="2">
         <v>20</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <f t="shared" si="0"/>
         <v>0.13204399999999997</v>
       </c>
-      <c r="H5" t="s">
+      <c r="G5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I5" t="s">
         <v>38</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.43</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>26</v>
       </c>
@@ -8726,18 +8821,21 @@
       <c r="E6" s="2">
         <v>20</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
         <f t="shared" si="0"/>
         <v>-9.9210399999999949E-2</v>
       </c>
-      <c r="H6" t="s">
+      <c r="G6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" t="s">
         <v>39</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.7</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>33</v>
       </c>
@@ -8745,24 +8843,27 @@
         <f>COUNTIF(History!B7:B127,Nachbearbeitung!B7)</f>
         <v>5</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="3">
         <v>0.77639000000000002</v>
       </c>
       <c r="E7" s="2">
         <v>0.75</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
         <f t="shared" si="0"/>
         <v>3.5186666666666699E-2</v>
       </c>
-      <c r="H7" t="s">
+      <c r="G7" t="s">
+        <v>78</v>
+      </c>
+      <c r="I7" t="s">
         <v>45</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>4.0000000000000002E-9</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>24</v>
       </c>
@@ -8770,24 +8871,27 @@
         <f>COUNTIF(History!B8:B128,Nachbearbeitung!B8)</f>
         <v>2</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="6">
         <v>3.9966599999999999</v>
       </c>
       <c r="E8" s="2">
         <v>2</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="3">
         <f t="shared" si="0"/>
         <v>0.99832999999999994</v>
       </c>
-      <c r="H8" t="s">
+      <c r="G8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I8" t="s">
         <v>15</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>41</v>
       </c>
@@ -8795,24 +8899,27 @@
         <f>COUNTIF(History!B9:B129,Nachbearbeitung!B9)</f>
         <v>1</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="7">
         <v>9.8885000000000001E-2</v>
       </c>
       <c r="E9" s="2">
         <v>0.1</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="3">
         <f t="shared" si="0"/>
         <v>-1.1150000000000049E-2</v>
       </c>
-      <c r="H9" t="s">
+      <c r="G9" t="s">
+        <v>80</v>
+      </c>
+      <c r="I9" t="s">
         <v>8</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>42</v>
       </c>
@@ -8820,24 +8927,27 @@
         <f>COUNTIF(History!B10:B130,Nachbearbeitung!B10)</f>
         <v>3</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="3">
         <v>1.976723</v>
       </c>
       <c r="E10" s="2">
         <v>2</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3">
         <f t="shared" si="0"/>
         <v>-1.1638499999999996E-2</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G10" t="s">
+        <v>81</v>
+      </c>
+      <c r="I10" t="s">
         <v>35</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -8845,24 +8955,27 @@
         <f>COUNTIF(History!B11:B131,Nachbearbeitung!B11)</f>
         <v>4</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="3">
         <v>3.4916999999999997E-2</v>
       </c>
       <c r="E11" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="3">
         <f t="shared" si="0"/>
         <v>-0.50118571428571435</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G11" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11" t="s">
         <v>36</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>17</v>
       </c>
@@ -8876,18 +8989,21 @@
       <c r="E12" s="2">
         <v>1000</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="3">
         <f t="shared" si="0"/>
         <v>0.43674485099999993</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G12" t="s">
+        <v>83</v>
+      </c>
+      <c r="I12" t="s">
         <v>37</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>25</v>
       </c>
@@ -8895,24 +9011,27 @@
         <f>COUNTIF(History!B13:B133,Nachbearbeitung!B13)</f>
         <v>1</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="6">
         <v>15.000028</v>
       </c>
       <c r="E13" s="2">
         <v>10</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="3">
         <f t="shared" si="0"/>
         <v>0.50000280000000008</v>
       </c>
-      <c r="H13" t="s">
+      <c r="G13" t="s">
+        <v>84</v>
+      </c>
+      <c r="I13" t="s">
         <v>40</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>3200000000</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>27</v>
       </c>
@@ -8926,18 +9045,21 @@
       <c r="E14" s="2">
         <v>2</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="3">
         <f t="shared" si="0"/>
         <v>3.1100504999999998</v>
       </c>
-      <c r="H14" t="s">
+      <c r="G14" t="s">
+        <v>85</v>
+      </c>
+      <c r="I14" t="s">
         <v>44</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>230</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>20</v>
       </c>
@@ -8945,19 +9067,22 @@
         <f>COUNTIF(History!B15:B135,Nachbearbeitung!B15)</f>
         <v>3</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="3">
         <v>8.8524000000000005E-2</v>
       </c>
       <c r="E15" s="2">
         <v>0.1</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="3">
         <f t="shared" si="0"/>
         <v>-0.11476</v>
       </c>
-      <c r="I15" s="5"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>86</v>
+      </c>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>22</v>
       </c>
@@ -8971,13 +9096,16 @@
       <c r="E16" s="2">
         <v>10</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="3">
         <f t="shared" si="0"/>
         <v>-7.4299799999999999E-2</v>
       </c>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>87</v>
+      </c>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>19</v>
       </c>
@@ -8985,19 +9113,22 @@
         <f>COUNTIF(History!B17:B137,Nachbearbeitung!B17)</f>
         <v>23</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="8">
         <v>4.1800000000000002E-4</v>
       </c>
       <c r="E17" s="2">
         <v>0.02</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="3">
         <f t="shared" si="0"/>
         <v>-0.97909999999999997</v>
       </c>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>88</v>
+      </c>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>14</v>
       </c>
@@ -9005,19 +9136,22 @@
         <f>COUNTIF(History!B18:B138,Nachbearbeitung!B18)</f>
         <v>0</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="7">
         <v>1.655E-3</v>
       </c>
       <c r="E18" s="3">
         <v>1E-3</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="3">
         <f t="shared" si="0"/>
         <v>0.65499999999999992</v>
       </c>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>89</v>
+      </c>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>12</v>
       </c>
@@ -9031,13 +9165,16 @@
       <c r="E19" s="2">
         <v>1</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="3">
         <f t="shared" si="0"/>
         <v>1.1414430000000002</v>
       </c>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>90</v>
+      </c>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>13</v>
       </c>
@@ -9045,18 +9182,21 @@
         <f>COUNTIF(History!B20:B140,Nachbearbeitung!B20)</f>
         <v>4</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="6">
         <v>82.099376000000007</v>
       </c>
       <c r="E20" s="2">
         <v>20</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="3">
         <f t="shared" si="0"/>
         <v>3.1049688000000004</v>
       </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>6</v>
       </c>
@@ -9070,12 +9210,15 @@
       <c r="E21" s="2">
         <v>1</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="3">
         <f t="shared" si="0"/>
         <v>0.49038500000000007</v>
       </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>18</v>
       </c>
@@ -9089,13 +9232,16 @@
       <c r="E22" s="5">
         <v>1000000000000</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="3">
         <f t="shared" si="0"/>
         <v>-9.2645791439241579E-2</v>
       </c>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>93</v>
+      </c>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>16</v>
       </c>
@@ -9103,77 +9249,271 @@
         <f>COUNTIF(History!B23:B143,Nachbearbeitung!B23)</f>
         <v>3</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="3">
         <v>0.98549699999999996</v>
       </c>
       <c r="E23" s="2">
         <v>1</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="3">
         <f t="shared" si="0"/>
         <v>-1.4503000000000044E-2</v>
       </c>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G25" s="2"/>
-    </row>
-    <row r="41" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I41" s="2"/>
-    </row>
-    <row r="42" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I42" s="2"/>
-    </row>
-    <row r="43" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I43" s="2"/>
-    </row>
-    <row r="44" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I44" s="2"/>
-    </row>
-    <row r="45" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I45" s="2"/>
-    </row>
-    <row r="46" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I46" s="5"/>
-    </row>
-    <row r="47" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I47" s="2"/>
-    </row>
-    <row r="48" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I48" s="2"/>
-    </row>
-    <row r="49" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I49" s="2"/>
-    </row>
-    <row r="50" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I50" s="2"/>
-    </row>
-    <row r="51" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I51" s="2"/>
-    </row>
-    <row r="52" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I52" s="2"/>
-    </row>
-    <row r="53" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I53" s="2"/>
-    </row>
-    <row r="54" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I54" s="2"/>
-    </row>
-    <row r="55" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I55" s="2"/>
-    </row>
-    <row r="56" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I56" s="2"/>
+      <c r="G23" t="s">
+        <v>94</v>
+      </c>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H25" s="2"/>
+    </row>
+    <row r="41" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J41" s="2"/>
+    </row>
+    <row r="42" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J42" s="2"/>
+    </row>
+    <row r="43" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J43" s="2"/>
+    </row>
+    <row r="44" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J44" s="2"/>
+    </row>
+    <row r="45" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J45" s="2"/>
+    </row>
+    <row r="46" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J46" s="5"/>
+    </row>
+    <row r="47" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J47" s="2"/>
+    </row>
+    <row r="48" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J48" s="2"/>
+    </row>
+    <row r="49" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J49" s="2"/>
+    </row>
+    <row r="50" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J50" s="2"/>
+    </row>
+    <row r="51" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J51" s="2"/>
+    </row>
+    <row r="52" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J52" s="2"/>
+    </row>
+    <row r="53" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J53" s="2"/>
+    </row>
+    <row r="54" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J54" s="2"/>
+    </row>
+    <row r="55" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J55" s="2"/>
+    </row>
+    <row r="56" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J56" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F22:G49">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F22:H49">
     <sortCondition ref="F22:F49"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87B0F9B-A4AB-427C-BFE9-0DE4B9BB50F5}">
+  <dimension ref="C2:D23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C2" s="3">
+        <v>0.97515499999999999</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C3" s="3">
+        <v>35.763545999999998</v>
+      </c>
+      <c r="D3" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C4" s="3">
+        <v>2.9237160000000002</v>
+      </c>
+      <c r="D4" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C5" s="3">
+        <v>22.640879999999999</v>
+      </c>
+      <c r="D5" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="2">
+        <v>18.015792000000001</v>
+      </c>
+      <c r="D6" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="3">
+        <v>0.77639000000000002</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="6">
+        <v>3.9966599999999999</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="7">
+        <v>9.8885000000000001E-2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="3">
+        <v>1.976723</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="3">
+        <v>3.4916999999999997E-2</v>
+      </c>
+      <c r="D11" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="3">
+        <v>1436.7448509999999</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="6">
+        <v>15.000028</v>
+      </c>
+      <c r="D13" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="2">
+        <v>8.2201009999999997</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="3">
+        <v>8.8524000000000005E-2</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="3">
+        <v>9.257002</v>
+      </c>
+      <c r="D16" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="7">
+        <v>4.1800000000000002E-4</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="3">
+        <v>1.655E-3</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="3">
+        <v>2.1414430000000002</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="6">
+        <v>82.099376000000007</v>
+      </c>
+      <c r="D20" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="3">
+        <v>1.4903850000000001</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C22" s="5">
+        <v>907354208560.75842</v>
+      </c>
+      <c r="D22" s="5">
+        <v>1000000000000</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C23" s="3">
+        <v>0.98549699999999996</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Durchläufe/Größere Grid resolution/60/Nachbearbeitung_23_03_04_17_10.xlsx
+++ b/Durchläufe/Größere Grid resolution/60/Nachbearbeitung_23_03_04_17_10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim Schell\Documents\GitHub\Limits-to-Growth-Masterprojekt-TH-Koeln-2022\Durchläufe\Größere Grid resolution\60\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A0E602F-3DA1-4A0E-8CEE-588B638E709F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{439F6788-C949-4167-B53E-B0723BA3CC54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="8" r:id="rId1"/>
@@ -7913,8 +7913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B18376-9D15-4F7B-9DDA-34955610ECF9}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8652,8 +8652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED61EA00-2246-4314-8737-2A6D310466A4}">
   <dimension ref="B1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
